--- a/pred_ohlcv/54_21/2020-01-23 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>606120.1925285106</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>619382.1872285106</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>619482.1872285106</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>599698.5039285106</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>596658.7928285106</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>584158.7928285106</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>584006.0567683575</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>572838.7549683576</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>572938.7549683576</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>680546.1042683576</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>616969.9579683576</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>640251.5225683576</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>630029.9234683577</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>133885.9711683576</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>164802.6250683577</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>164835.6317076242</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>158506.4930076242</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>546927.9333076242</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>606120.1925285106</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>619382.1872285106</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>619482.1872285106</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>599698.5039285106</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>596758.7928285106</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>584158.7928285106</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>572838.7549683576</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>572938.7549683576</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>680546.1042683576</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>616969.9579683576</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>640251.5225683576</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>630029.9234683577</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>133885.9711683576</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>164802.6250683577</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>164835.6317076242</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>158506.4930076242</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>152653.4930076242</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>546927.9333076242</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>559764.3210076242</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>379686.1507076242</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>352894.8458076242</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>354894.8458076242</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
